--- a/SLSclass/Name list for Pri pilot.xlsx
+++ b/SLSclass/Name list for Pri pilot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lookang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE6ADD6-F15B-CA4C-9C8C-F9C5BBD61022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F86AA8-6F95-DE4D-9528-0BA3B5BF8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,10 +368,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -403,7 +403,7 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -418,7 +418,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -433,7 +433,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -463,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -478,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
